--- a/biology/Zoologie/Ernst_Hartert/Ernst_Hartert.xlsx
+++ b/biology/Zoologie/Ernst_Hartert/Ernst_Hartert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Johann Otto Hartert est un ornithologue allemand, né le 29 octobre 1859 à Hambourg et mort le 11 novembre 1933 à Berlin.
 Très jeune passionné par la zoologie et en particulier par l’ornithologie, il voyage au Moyen-Orient et en Afrique. Il travaille pour Lionel Walter Rothschild comme conservateur de son muséum privé à Tring de 1892 à 1929.
@@ -542,7 +556,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive:
 Myzomèle à menton blanc
@@ -577,7 +593,9 @@
           <t>Écrits (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En plus de nombreux articles dans la revue du musée Novitates Zoologicae, Hartert a participé aux livres suivants, entre autres :
 1891 : Catalogue de la collection d’oiseaux du musée de la Société Senckenberg des sciences naturelles de Francfort-sur-le-Main
@@ -618,7 +636,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres) : 400 p.  (ISBN 0-300-10359-X)
 [Sans auteur] (1934). Obituary, Ibis, 76 (1) : 178-179.</t>
